--- a/biology/Médecine/Michel_Bertrand_(médecin)/Michel_Bertrand_(médecin).xlsx
+++ b/biology/Médecine/Michel_Bertrand_(médecin)/Michel_Bertrand_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Michel_Bertrand_(m%C3%A9decin)</t>
+          <t>Michel_Bertrand_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michel Bertrand, né à Saint-Sauves-d'Auvergne le 31 octobre 1774 et mort à Clermont-Ferrand le 30 octobre 1857[1], est un médecin français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michel Bertrand, né à Saint-Sauves-d'Auvergne le 31 octobre 1774 et mort à Clermont-Ferrand le 30 octobre 1857, est un médecin français.
 Élève du chirurgien Claude Bonnet, il est le fondateur de la station thermale du Mont-Dore au début du XIXe siècle.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Michel_Bertrand_(m%C3%A9decin)</t>
+          <t>Michel_Bertrand_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Observations sur l'inoculation de la vaccine, [présentées au Comité des arts, d'agriculture et de commerce du département du Puy-de-Dôme, dans sa séance du 29 frimaire an 10], Veyfset (Clermont-Ferrand), 1801 (lire en ligne sur Gallica).</t>
         </is>
